--- a/Planeacion del proyecto/Plantillas/PL Bitacora.xlsx
+++ b/Planeacion del proyecto/Plantillas/PL Bitacora.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SG701-12\Documents\METFOR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carloscruzrodriguez/Desktop/METFOR/Planeacion del proyecto/Plantillas/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE656CBF-7EFA-C64B-8129-EEEE776CD8B8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24000" windowHeight="9740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitacora" sheetId="1" r:id="rId1"/>
@@ -30,9 +31,6 @@
     <t>METFOR</t>
   </si>
   <si>
-    <t>CICLO I</t>
-  </si>
-  <si>
     <t>UNIVERSIDAD PILOTO DE COLOMBIA</t>
   </si>
   <si>
@@ -117,12 +115,15 @@
   </si>
   <si>
     <t>BITACORA DE REGISTRO DE TIEMPOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CICLO </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -494,7 +495,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -530,7 +531,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{11164690-E88B-4297-8DAE-F2FFDC98F9AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11164690-E88B-4297-8DAE-F2FFDC98F9AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -861,42 +862,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="2"/>
-    <col min="2" max="2" width="10.5703125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" style="2"/>
-    <col min="5" max="7" width="18.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="37.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="11.5" style="2"/>
+    <col min="2" max="2" width="10.5" style="2" customWidth="1"/>
+    <col min="3" max="4" width="11.5" style="2"/>
+    <col min="5" max="7" width="18.1640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="37.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.5" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="11.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -904,16 +905,16 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="2:10" ht="16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C10" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -922,7 +923,7 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="5"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -931,44 +932,44 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="E14" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="F14" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="G14" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="H14" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="I14" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="J14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="21"/>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
@@ -979,7 +980,7 @@
       <c r="I15" s="27"/>
       <c r="J15" s="19"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="12"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -990,7 +991,7 @@
       <c r="I16" s="16"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="12"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1001,7 +1002,7 @@
       <c r="I17" s="16"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="12"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1012,7 +1013,7 @@
       <c r="I18" s="16"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="12"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1023,7 +1024,7 @@
       <c r="I19" s="16"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="12"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1034,7 +1035,7 @@
       <c r="I20" s="16"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="12"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1045,7 +1046,7 @@
       <c r="I21" s="16"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="12"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1056,7 +1057,7 @@
       <c r="I22" s="16"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="12"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1067,7 +1068,7 @@
       <c r="I23" s="16"/>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="12"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1078,7 +1079,7 @@
       <c r="I24" s="16"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="12"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1089,7 +1090,7 @@
       <c r="I25" s="16"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="12"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1100,7 +1101,7 @@
       <c r="I26" s="16"/>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="12"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1111,7 +1112,7 @@
       <c r="I27" s="16"/>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="12"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1122,7 +1123,7 @@
       <c r="I28" s="16"/>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="12"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1133,7 +1134,7 @@
       <c r="I29" s="16"/>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="12"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1144,7 +1145,7 @@
       <c r="I30" s="16"/>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="12"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1155,7 +1156,7 @@
       <c r="I31" s="16"/>
       <c r="J31" s="8"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="12"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1166,7 +1167,7 @@
       <c r="I32" s="16"/>
       <c r="J32" s="8"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" s="12"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1177,7 +1178,7 @@
       <c r="I33" s="16"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="12"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1188,7 +1189,7 @@
       <c r="I34" s="16"/>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="12"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1199,7 +1200,7 @@
       <c r="I35" s="16"/>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="12"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1210,7 +1211,7 @@
       <c r="I36" s="16"/>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="12"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1221,7 +1222,7 @@
       <c r="I37" s="16"/>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38" s="12"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1232,7 +1233,7 @@
       <c r="I38" s="16"/>
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39" s="12"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1243,7 +1244,7 @@
       <c r="I39" s="16"/>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40" s="12"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1254,7 +1255,7 @@
       <c r="I40" s="16"/>
       <c r="J40" s="8"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" s="12"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1265,7 +1266,7 @@
       <c r="I41" s="16"/>
       <c r="J41" s="8"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" s="12"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1276,7 +1277,7 @@
       <c r="I42" s="16"/>
       <c r="J42" s="8"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43" s="12"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1287,7 +1288,7 @@
       <c r="I43" s="16"/>
       <c r="J43" s="8"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" s="12"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1298,7 +1299,7 @@
       <c r="I44" s="16"/>
       <c r="J44" s="8"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45" s="12"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1309,7 +1310,7 @@
       <c r="I45" s="16"/>
       <c r="J45" s="8"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B46" s="12"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1320,7 +1321,7 @@
       <c r="I46" s="16"/>
       <c r="J46" s="8"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B47" s="12"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -1331,7 +1332,7 @@
       <c r="I47" s="16"/>
       <c r="J47" s="8"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B48" s="12"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -1342,7 +1343,7 @@
       <c r="I48" s="16"/>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B49" s="12"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -1353,7 +1354,7 @@
       <c r="I49" s="16"/>
       <c r="J49" s="8"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B50" s="12"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -1364,7 +1365,7 @@
       <c r="I50" s="16"/>
       <c r="J50" s="8"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B51" s="12"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -1375,7 +1376,7 @@
       <c r="I51" s="16"/>
       <c r="J51" s="8"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B52" s="12"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -1386,7 +1387,7 @@
       <c r="I52" s="16"/>
       <c r="J52" s="8"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B53" s="12"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -1397,7 +1398,7 @@
       <c r="I53" s="16"/>
       <c r="J53" s="8"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B54" s="12"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -1408,7 +1409,7 @@
       <c r="I54" s="16"/>
       <c r="J54" s="8"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B55" s="12"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -1419,7 +1420,7 @@
       <c r="I55" s="16"/>
       <c r="J55" s="8"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B56" s="12"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -1430,7 +1431,7 @@
       <c r="I56" s="16"/>
       <c r="J56" s="8"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B57" s="12"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -1441,7 +1442,7 @@
       <c r="I57" s="16"/>
       <c r="J57" s="8"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B58" s="12"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -1452,7 +1453,7 @@
       <c r="I58" s="16"/>
       <c r="J58" s="8"/>
     </row>
-    <row r="59" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B59" s="13"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
@@ -1482,24 +1483,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.5703125" customWidth="1"/>
+    <col min="6" max="7" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -1507,7 +1508,7 @@
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -1515,7 +1516,7 @@
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
@@ -1523,7 +1524,7 @@
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
@@ -1531,7 +1532,7 @@
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
@@ -1539,7 +1540,7 @@
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -1547,9 +1548,9 @@
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -1557,7 +1558,7 @@
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
@@ -1565,7 +1566,7 @@
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
@@ -1573,7 +1574,7 @@
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
@@ -1581,7 +1582,7 @@
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
@@ -1589,7 +1590,7 @@
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
@@ -1597,9 +1598,9 @@
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
@@ -1607,7 +1608,7 @@
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
@@ -1615,7 +1616,7 @@
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
@@ -1623,7 +1624,7 @@
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
@@ -1631,7 +1632,7 @@
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
@@ -1639,7 +1640,7 @@
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
@@ -1647,9 +1648,9 @@
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
@@ -1657,27 +1658,27 @@
       <c r="F20" s="28"/>
       <c r="G20" s="28"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="D21" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="E21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -1685,7 +1686,7 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -1693,7 +1694,7 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -1701,7 +1702,7 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -1709,7 +1710,7 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
@@ -1717,7 +1718,7 @@
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -1725,7 +1726,7 @@
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -1733,7 +1734,7 @@
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
@@ -1741,7 +1742,7 @@
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
@@ -1749,7 +1750,7 @@
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -1757,7 +1758,7 @@
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -1765,7 +1766,7 @@
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
@@ -1773,7 +1774,7 @@
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
@@ -1781,9 +1782,9 @@
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" s="28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C35" s="28"/>
       <c r="D35" s="28"/>
@@ -1791,7 +1792,7 @@
       <c r="F35" s="28"/>
       <c r="G35" s="28"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
       <c r="D36" s="29"/>
@@ -1799,7 +1800,7 @@
       <c r="F36" s="29"/>
       <c r="G36" s="29"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
       <c r="D37" s="29"/>
@@ -1807,7 +1808,7 @@
       <c r="F37" s="29"/>
       <c r="G37" s="29"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38" s="29"/>
       <c r="C38" s="29"/>
       <c r="D38" s="29"/>
@@ -1815,7 +1816,7 @@
       <c r="F38" s="29"/>
       <c r="G38" s="29"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
       <c r="D39" s="29"/>
@@ -1823,7 +1824,7 @@
       <c r="F39" s="29"/>
       <c r="G39" s="29"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" s="29"/>
       <c r="C40" s="29"/>
       <c r="D40" s="29"/>
@@ -1831,7 +1832,7 @@
       <c r="F40" s="29"/>
       <c r="G40" s="29"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41" s="29"/>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
@@ -1839,9 +1840,9 @@
       <c r="F41" s="29"/>
       <c r="G41" s="29"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C42" s="28"/>
       <c r="D42" s="28"/>
@@ -1849,7 +1850,7 @@
       <c r="F42" s="28"/>
       <c r="G42" s="28"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43" s="29"/>
       <c r="C43" s="29"/>
       <c r="D43" s="29"/>
@@ -1857,7 +1858,7 @@
       <c r="F43" s="29"/>
       <c r="G43" s="29"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44" s="29"/>
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
@@ -1865,7 +1866,7 @@
       <c r="F44" s="29"/>
       <c r="G44" s="29"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45" s="29"/>
       <c r="C45" s="29"/>
       <c r="D45" s="29"/>
@@ -1873,7 +1874,7 @@
       <c r="F45" s="29"/>
       <c r="G45" s="29"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B46" s="29"/>
       <c r="C46" s="29"/>
       <c r="D46" s="29"/>
@@ -1881,7 +1882,7 @@
       <c r="F46" s="29"/>
       <c r="G46" s="29"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B47" s="29"/>
       <c r="C47" s="29"/>
       <c r="D47" s="29"/>
@@ -1889,9 +1890,9 @@
       <c r="F47" s="29"/>
       <c r="G47" s="29"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B48" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C48" s="28"/>
       <c r="D48" s="28"/>
@@ -1899,21 +1900,21 @@
       <c r="F48" s="28"/>
       <c r="G48" s="28"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49" s="29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" s="29"/>
       <c r="D49" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E49" s="29"/>
       <c r="F49" s="29"/>
       <c r="G49" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
@@ -1921,7 +1922,7 @@
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
@@ -1929,7 +1930,7 @@
       <c r="F51" s="14"/>
       <c r="G51" s="14"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
@@ -1937,7 +1938,7 @@
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
@@ -1945,7 +1946,7 @@
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
@@ -1953,7 +1954,7 @@
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
